--- a/X2110-Camera/100x/beads-6/center-sigma-green-4.xlsx
+++ b/X2110-Camera/100x/beads-6/center-sigma-green-4.xlsx
@@ -15,12 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>centers</t>
   </si>
   <si>
     <t>sigmas</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>584.2089650151851</t>
+  </si>
+  <si>
+    <t>21.091174364770623</t>
+  </si>
+  <si>
+    <t>lorentzian</t>
+  </si>
+  <si>
+    <t>586.151637066515</t>
+  </si>
+  <si>
+    <t>22.814157353418754</t>
+  </si>
+  <si>
+    <t>583.7078431656653</t>
+  </si>
+  <si>
+    <t>25.663378578350205</t>
+  </si>
+  <si>
+    <t>584.2085167228786</t>
+  </si>
+  <si>
+    <t>25.26291670483937</t>
+  </si>
+  <si>
+    <t>580.5063085183023</t>
+  </si>
+  <si>
+    <t>34.37682038583849</t>
+  </si>
+  <si>
+    <t>580.6443470713135</t>
+  </si>
+  <si>
+    <t>43.831348506087735</t>
+  </si>
+  <si>
+    <t>578.8400937301277</t>
+  </si>
+  <si>
+    <t>38.34077282950777</t>
   </si>
 </sst>
 </file>
@@ -369,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,89 +425,113 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>584.2089650151851</v>
-      </c>
-      <c r="C2" t="n">
-        <v>21.09117436477062</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>586.151637066515</v>
-      </c>
-      <c r="C3" t="n">
-        <v>22.81415735341875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>583.7078431656653</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.6633785783502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>584.2085167228786</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25.26291670483937</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>580.5063085183023</v>
-      </c>
-      <c r="C6" t="n">
-        <v>34.37682038583849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>580.6443470713135</v>
-      </c>
-      <c r="C7" t="n">
-        <v>43.83134850608774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>578.8400937301277</v>
-      </c>
-      <c r="C8" t="n">
-        <v>38.34077282950777</v>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
